--- a/biology/Botanique/Stanhopea_tricornis/Stanhopea_tricornis.xlsx
+++ b/biology/Botanique/Stanhopea_tricornis/Stanhopea_tricornis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Stanhopea tricornis est une espèce de plantes à fleurs des la famille des orchidées endémique de l'ouest de l'Amérique du Sud (Colombie).
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Epiphyte de taille petite à moyenne avec des pseudobulbes vert foncé portant une seule feuille apicale, plissée, largement ovale, aiguë, se rétrécissant progressivement en dessous pour former une feuille de base allongée et pétiolée qui fleurit de l'hiver à l'été sur une courte à 15 cm de long, racémeuse, 2 fleurs inflorescence apparaissant sur un pseudobulbe mature et enveloppée de grandes bractées chartacées et portant des fleurs parfumées au jasmin.
 </t>
@@ -542,9 +556,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Elle est originaire et spécifique de la Colombie mais, on la trouve dans des versants occidentaux des Andes au Pérou, en Equateur dans des forêts très chaudes et très humides ce qui donne probablement un indice sur sa floraison réussie[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Elle est originaire et spécifique de la Colombie mais, on la trouve dans des versants occidentaux des Andes au Pérou, en Equateur dans des forêts très chaudes et très humides ce qui donne probablement un indice sur sa floraison réussie.
 </t>
         </is>
       </c>
